--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A971620-7C70-4886-ACBC-8BB1052E229E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2083C311-B8B6-40D9-85EA-F231A998E0E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,10 +424,16 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B7">
+        <v>7876535</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B8">
+        <v>985734</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">

--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2083C311-B8B6-40D9-85EA-F231A998E0E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B1DF0E04-5FB2-4E50-909B-08240057C5F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="3480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -367,7 +368,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
